--- a/Grocery Trends.xlsx
+++ b/Grocery Trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b734915cc2bfd55/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2888" documentId="8_{E0D3B657-DB53-414B-94A9-8C687145053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8796B71C-120E-4F64-9DF5-5901FA94F9EA}"/>
+  <xr:revisionPtr revIDLastSave="3049" documentId="8_{E0D3B657-DB53-414B-94A9-8C687145053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBE0516-35C4-46F0-A5E6-71B356C0886E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7EB9DF5-9DF0-4172-9E7F-758125BCAC4F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Olivia</t>
+  </si>
+  <si>
+    <t>Frank M</t>
   </si>
 </sst>
 </file>
@@ -675,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E61665-E29A-4597-BD6C-AA5DAB5BE6D1}">
-  <dimension ref="A1:AG142"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8458,1462 +8461,1963 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B122">
+        <v>49</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>13</v>
+      </c>
+      <c r="P122" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R122" s="4">
+        <f>12.09+5.99+18.24+5.49+6.59+3.49</f>
+        <v>51.889999999999993</v>
+      </c>
+      <c r="S122" s="4">
+        <f>1.5+1.5+5.49+3.49+4.39+3.5+4+3+3.49+5.35+3.99+1.25+3.99+6.59+5.29+0.5+2.5+3+4.69+4.79</f>
+        <v>72.300000000000011</v>
+      </c>
+      <c r="T122" s="4">
+        <f>2.5+2+1.99+2.99+2.5+4.79+3.99+1.99+1.33</f>
+        <v>24.08</v>
+      </c>
+      <c r="V122" s="4">
+        <f>5.39+5.39+3.99+6+1.5+1.5+1.5+1.5+4.15+2.99+3.33+0.1+3.07</f>
+        <v>40.410000000000004</v>
+      </c>
+      <c r="Y122" s="4">
+        <v>189.71</v>
+      </c>
+      <c r="Z122" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="AA122" s="3">
+        <v>0.35859953703703701</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD122" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="AE122">
+        <v>7</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>44551</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>5</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="E122">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="E123">
         <v>2</v>
       </c>
-      <c r="J122">
+      <c r="J123">
         <v>2</v>
       </c>
-      <c r="P122" s="4">
+      <c r="P123" s="4">
         <v>4.99</v>
       </c>
-      <c r="S122" s="4">
+      <c r="S123" s="4">
         <f>3+0.1</f>
         <v>3.1</v>
       </c>
-      <c r="W122" s="4">
+      <c r="W123" s="4">
         <f>3.99+0.1</f>
         <v>4.09</v>
       </c>
-      <c r="Y122" s="4">
+      <c r="Y123" s="4">
         <v>12.18</v>
       </c>
-      <c r="Z122" s="4">
+      <c r="Z123" s="4">
         <v>0.41</v>
       </c>
-      <c r="AA122" s="3">
+      <c r="AA123" s="3">
         <v>0.38538194444444446</v>
       </c>
-      <c r="AB122" t="s">
+      <c r="AB123" t="s">
         <v>72</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="AC123" t="s">
         <v>42</v>
       </c>
-      <c r="AD122" s="4">
+      <c r="AD123" s="4">
         <v>0.39</v>
       </c>
-      <c r="AE122" t="s">
+      <c r="AE123" t="s">
         <v>73</v>
       </c>
-      <c r="AF122" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG122" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="AF123" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>44556</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <v>54</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>17</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>10</v>
       </c>
-      <c r="G123">
-        <v>7</v>
-      </c>
-      <c r="I123">
+      <c r="G124">
+        <v>7</v>
+      </c>
+      <c r="I124">
         <v>13</v>
       </c>
-      <c r="J123">
+      <c r="J124">
         <v>5</v>
       </c>
-      <c r="R123" s="4">
+      <c r="R124" s="4">
         <f>8.99+3.49+12.01+5.19+4.69+9.19+3.49</f>
         <v>47.050000000000004</v>
       </c>
-      <c r="S123" s="4">
+      <c r="S124" s="4">
         <f>2.65+2.09+1.25+1.25+1.25+1.25+3.49+3.49+3.99+1.39+0.5+0.5+0.5+0.5+3.75+2.19+4.69</f>
         <v>34.730000000000004</v>
       </c>
-      <c r="T123" s="4">
+      <c r="T124" s="4">
         <f>3.66+2.79+2.21+4.79+3.99+1.04+1.98+5+1.99+2.15</f>
         <v>29.599999999999994</v>
       </c>
-      <c r="V123" s="4">
+      <c r="V124" s="4">
         <f>4.89+1.5+1.5+6.99+1.99+4.15+4.89+0.1+3+3+3.07+3.99+2.56</f>
         <v>41.63</v>
       </c>
-      <c r="W123" s="4">
+      <c r="W124" s="4">
         <f>7.89+2.99+4.45+2.79+2.79</f>
         <v>20.909999999999997</v>
       </c>
-      <c r="Y123" s="4">
+      <c r="Y124" s="4">
         <v>176.47</v>
       </c>
-      <c r="Z123" s="4">
+      <c r="Z124" s="4">
         <v>3.53</v>
       </c>
-      <c r="AA123" s="3">
+      <c r="AA124" s="3">
         <v>0.90207175925925931</v>
       </c>
-      <c r="AB123" t="s">
+      <c r="AB124" t="s">
         <v>67</v>
       </c>
-      <c r="AC123" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD123" s="4">
+      <c r="AC124" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD124" s="4">
         <v>15.55</v>
       </c>
-      <c r="AE123">
+      <c r="AE124">
         <v>6</v>
       </c>
-      <c r="AF123" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="AF124" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>44563</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>31</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="E124">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="E125">
         <v>9</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>5</v>
       </c>
-      <c r="G124">
-        <v>7</v>
-      </c>
-      <c r="I124">
+      <c r="G125">
+        <v>7</v>
+      </c>
+      <c r="I125">
         <v>9</v>
       </c>
-      <c r="P124" s="4">
+      <c r="P125" s="4">
         <v>2.99</v>
       </c>
-      <c r="R124" s="4">
+      <c r="R125" s="4">
         <f>6.29+7.99+7.99+5.99+7.2+9.99+8.49</f>
         <v>53.940000000000012</v>
       </c>
-      <c r="S124" s="4">
+      <c r="S125" s="4">
         <f>3.49+4.99+4.58+4.58+1.49+1.49+1.49+1.49+1.49</f>
         <v>25.089999999999993</v>
       </c>
-      <c r="T124" s="4">
+      <c r="T125" s="4">
         <f>2.79+2.96+2.99+0.79+2.59</f>
         <v>12.120000000000001</v>
       </c>
-      <c r="V124" s="4">
+      <c r="V125" s="4">
         <f>3.5+4.49+1.5+1.5+2+2+2.89+2.04+5.49</f>
         <v>25.409999999999997</v>
       </c>
-      <c r="Y124" s="4">
+      <c r="Y125" s="4">
         <v>119.55</v>
       </c>
-      <c r="Z124" s="4">
+      <c r="Z125" s="4">
         <v>0</v>
       </c>
-      <c r="AA124" s="3">
+      <c r="AA125" s="3">
         <v>0.34290509259259255</v>
       </c>
-      <c r="AB124" t="s">
+      <c r="AB125" t="s">
         <v>44</v>
       </c>
-      <c r="AC124" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD124" s="4">
+      <c r="AC125" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD125" s="4">
         <v>23.49</v>
       </c>
-      <c r="AE124">
-        <v>7</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG124" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="AE125">
+        <v>7</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>44577</v>
       </c>
-      <c r="B125">
-        <v>30</v>
-      </c>
-      <c r="E125">
+      <c r="B126">
+        <v>30</v>
+      </c>
+      <c r="E126">
         <v>8</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <v>6</v>
       </c>
-      <c r="G125">
+      <c r="G126">
         <v>3</v>
       </c>
-      <c r="I125">
+      <c r="I126">
         <v>10</v>
       </c>
-      <c r="J125">
+      <c r="J126">
         <v>2</v>
       </c>
-      <c r="R125" s="4">
+      <c r="R126" s="4">
         <f>3.16+14.84+13.23</f>
         <v>31.23</v>
       </c>
-      <c r="S125" s="4">
+      <c r="S126" s="4">
         <f>1.79+2.5+2.5+3.49+1.39+1.79+0.96+3.59</f>
         <v>18.010000000000002</v>
       </c>
-      <c r="T125" s="4">
+      <c r="T126" s="4">
         <f>4.96+2.99+2.99+2.5+1.08+1.81</f>
         <v>16.330000000000002</v>
       </c>
-      <c r="V125" s="4">
+      <c r="V126" s="4">
         <f>1.5+1.5+1.5+1.5+1.5+3.99+7.29+4.89+0.1+3.07+3.89</f>
         <v>30.730000000000004</v>
       </c>
-      <c r="W125" s="4">
+      <c r="W126" s="4">
         <f>2.19+2.19</f>
         <v>4.38</v>
       </c>
-      <c r="Y125" s="4">
+      <c r="Y126" s="4">
         <v>99.32</v>
       </c>
-      <c r="Z125" s="4">
+      <c r="Z126" s="4">
         <v>0.45</v>
       </c>
-      <c r="AA125" s="3">
+      <c r="AA126" s="3">
         <v>0.33822916666666664</v>
       </c>
-      <c r="AB125" s="4" t="s">
+      <c r="AB126" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC125" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD125" s="4">
+      <c r="AC126" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD126" s="4">
         <v>19.440000000000001</v>
       </c>
-      <c r="AE125" s="7">
-        <v>7</v>
-      </c>
-      <c r="AF125" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG125" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="AE126" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG126" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>44584</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>32</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="E126">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
         <v>10</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <v>5</v>
       </c>
-      <c r="G126">
+      <c r="G127">
         <v>4</v>
       </c>
-      <c r="I126">
+      <c r="I127">
         <v>10</v>
       </c>
-      <c r="J126">
+      <c r="J127">
         <v>2</v>
       </c>
-      <c r="P126" s="4">
+      <c r="P127" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="R126" s="4">
+      <c r="R127" s="4">
         <f>6.79+8.33+5.99+4.54</f>
         <v>25.65</v>
       </c>
-      <c r="S126" s="4">
+      <c r="S127" s="4">
         <f>4.99+2.35+3.5+3.5+1.79+1.9+3.99+1.49+1.49+1.85</f>
         <v>26.849999999999994</v>
       </c>
-      <c r="T126" s="4">
+      <c r="T127" s="4">
         <f>4.38+1.89+2.99+0.89+1.02</f>
         <v>11.17</v>
       </c>
-      <c r="V126" s="4">
+      <c r="V127" s="4">
         <f>1.5+1.5+1.5+1.5+2.29+3.99+2.5+2.5+2.6+2.24</f>
         <v>22.120000000000005</v>
       </c>
-      <c r="W126" s="4">
+      <c r="W127" s="4">
         <f>7.99+0.99</f>
         <v>8.98</v>
       </c>
-      <c r="Y126" s="4">
+      <c r="Y127" s="4">
         <v>88.08</v>
       </c>
-      <c r="Z126" s="4">
+      <c r="Z127" s="4">
         <v>0.82</v>
       </c>
-      <c r="AA126" s="3">
+      <c r="AA127" s="3">
         <v>0.35743055555555553</v>
       </c>
-      <c r="AB126" t="s">
+      <c r="AB127" t="s">
         <v>43</v>
       </c>
-      <c r="AC126" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD126" s="4">
+      <c r="AC127" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD127" s="4">
         <v>22.84</v>
       </c>
-      <c r="AE126">
-        <v>7</v>
-      </c>
-      <c r="AF126" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG126" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="AE127">
+        <v>7</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>44591</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>40</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="E127">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128">
         <v>15</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <v>9</v>
       </c>
-      <c r="G127">
+      <c r="G128">
         <v>6</v>
       </c>
-      <c r="I127">
+      <c r="I128">
         <v>8</v>
       </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="P127" s="4">
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="P128" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="R127" s="4">
+      <c r="R128" s="4">
         <f>12.77+5.49+5.99+13.45+4.69+11.77</f>
         <v>54.16</v>
       </c>
-      <c r="S127" s="4">
+      <c r="S128" s="4">
         <f>3.99+2.85+4.79+3.99+1.39+1.39+1.49+1.35+1.35+3.75+2.19+2.19+4.25+4.79+4.69</f>
         <v>44.449999999999996</v>
       </c>
-      <c r="T127" s="4">
+      <c r="T128" s="4">
         <f>4.98+1.25+3.09+4.19+4.79+2.78+2.5+1.41</f>
         <v>24.990000000000002</v>
       </c>
-      <c r="V127" s="4">
+      <c r="V128" s="4">
         <f>7.78+1.5+1.5+1+1+4.79+5.15+3.29</f>
         <v>26.009999999999998</v>
       </c>
-      <c r="W127" s="4">
+      <c r="W128" s="4">
         <v>5.99</v>
       </c>
-      <c r="Y127" s="4">
+      <c r="Y128" s="4">
         <v>158.69999999999999</v>
       </c>
-      <c r="Z127" s="4">
+      <c r="Z128" s="4">
         <v>0.61</v>
       </c>
-      <c r="AA127" s="3">
+      <c r="AA128" s="3">
         <v>0.34017361111111111</v>
       </c>
-      <c r="AB127" t="s">
+      <c r="AB128" t="s">
         <v>43</v>
       </c>
-      <c r="AC127" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD127" s="4">
+      <c r="AC128" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD128" s="4">
         <v>8.11</v>
       </c>
-      <c r="AE127">
-        <v>7</v>
-      </c>
-      <c r="AF127" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="AE128">
+        <v>7</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>44598</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>39</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="E128">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="E129">
         <v>9</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>9</v>
       </c>
-      <c r="G128">
-        <v>7</v>
-      </c>
-      <c r="I128">
+      <c r="G129">
+        <v>7</v>
+      </c>
+      <c r="I129">
         <v>9</v>
       </c>
-      <c r="J128">
+      <c r="J129">
         <v>3</v>
       </c>
-      <c r="P128" s="4">
+      <c r="P129" s="4">
         <v>2.99</v>
       </c>
-      <c r="R128" s="4">
+      <c r="R129" s="4">
         <f>5.83+12.05+9.99+3.79+3.79+15.02+3.99</f>
         <v>54.46</v>
       </c>
-      <c r="S128" s="4">
+      <c r="S129" s="4">
         <f>2.29+4.29+3.49+1.69+4.79+2.99+1.29+0.79</f>
         <v>21.619999999999997</v>
       </c>
-      <c r="T128" s="4">
+      <c r="T129" s="4">
         <f>1.99+3.49+3.09+3.99+0.89+1.58+6.59+2.19+2.19</f>
         <v>26.000000000000004</v>
       </c>
-      <c r="V128" s="4">
+      <c r="V129" s="4">
         <f>3.33+1+1+1+1+3.99+4.89+0.1+2.99</f>
         <v>19.300000000000004</v>
       </c>
-      <c r="W128" s="4">
+      <c r="W129" s="4">
         <f>3.99+2.19+2.19</f>
         <v>8.3699999999999992</v>
       </c>
-      <c r="Y128" s="4">
+      <c r="Y129" s="4">
         <v>134.03</v>
       </c>
-      <c r="Z128" s="4">
+      <c r="Z129" s="4">
         <v>1.3</v>
       </c>
-      <c r="AA128" s="3">
+      <c r="AA129" s="3">
         <v>0.86322916666666671</v>
       </c>
-      <c r="AB128" t="s">
+      <c r="AB129" t="s">
         <v>66</v>
       </c>
-      <c r="AC128" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD128" s="4">
+      <c r="AC129" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD129" s="4">
         <v>9.17</v>
       </c>
-      <c r="AE128">
+      <c r="AE129">
         <v>5</v>
       </c>
-      <c r="AF128" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG128" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="AF129" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>44605</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>36</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>14</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <v>10</v>
       </c>
-      <c r="G129">
+      <c r="G130">
         <v>8</v>
       </c>
-      <c r="I129">
+      <c r="I130">
         <v>3</v>
       </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="R129" s="4">
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="R130" s="4">
         <f>3.99+5.8+9.11+3+3+18.14+3.49+5.77</f>
         <v>52.3</v>
       </c>
-      <c r="S129" s="4">
+      <c r="S130" s="4">
         <f>2.69+3.99+3.99+2.5+4.79+1.49+1.49+5.89+7.99+4.79+1.99+5.49+7.99+3.99</f>
         <v>59.070000000000007</v>
       </c>
-      <c r="T129" s="4">
+      <c r="T130" s="4">
         <f>4.41+1.76+1.89+3.49+3.09+4.79+3.99+0.89+1.34</f>
         <v>25.650000000000002</v>
       </c>
-      <c r="V129" s="4">
+      <c r="V130" s="4">
         <f>2.29+1.49+3.89</f>
         <v>7.67</v>
       </c>
-      <c r="W129" s="4">
+      <c r="W130" s="4">
         <v>5.19</v>
       </c>
-      <c r="Y129" s="4">
+      <c r="Y130" s="4">
         <v>150.41</v>
       </c>
-      <c r="Z129" s="4">
+      <c r="Z130" s="4">
         <v>0.53</v>
       </c>
-      <c r="AA129" s="3">
+      <c r="AA130" s="3">
         <v>0.33917824074074071</v>
       </c>
-      <c r="AB129" s="3" t="s">
+      <c r="AB130" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC129" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD129" s="4">
+      <c r="AC130" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD130" s="4">
         <v>27.28</v>
       </c>
-      <c r="AE129">
-        <v>7</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="AE130">
+        <v>7</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>44619</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>37</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>10</v>
       </c>
-      <c r="F130">
+      <c r="F131">
         <v>14</v>
       </c>
-      <c r="G130">
+      <c r="G131">
         <v>4</v>
       </c>
-      <c r="I130">
+      <c r="I131">
         <v>9</v>
       </c>
-      <c r="M130">
+      <c r="M131">
         <v>2</v>
       </c>
-      <c r="R130" s="4">
+      <c r="R131" s="4">
         <f>11.99+13.7+3.79+15.42</f>
         <v>44.9</v>
       </c>
-      <c r="S130" s="4">
+      <c r="S131" s="4">
         <f>6.79+1+1+1.49+0.79+0.79+0.79+3.59+3.75+2.99</f>
         <v>22.979999999999997</v>
       </c>
-      <c r="T130" s="4">
+      <c r="T131" s="4">
         <f>4.81+1.99+3.49+2.99+3.49+3.98+2.69+4.99+3.99+1.72+2.4+2.19+2.19</f>
         <v>40.919999999999995</v>
       </c>
-      <c r="V130" s="4">
+      <c r="V131" s="4">
         <f>1+1+1+1+1+3.99+2.99+11.99+3.89</f>
         <v>27.86</v>
       </c>
-      <c r="X130" s="4">
+      <c r="X131" s="4">
         <f>11.99+3</f>
         <v>14.99</v>
       </c>
-      <c r="Y130" s="4">
+      <c r="Y131" s="4">
         <v>122.03</v>
       </c>
-      <c r="Z130" s="4">
+      <c r="Z131" s="4">
         <v>0.36</v>
       </c>
-      <c r="AA130" s="3">
+      <c r="AA131" s="3">
         <v>0.34292824074074074</v>
       </c>
-      <c r="AB130" t="s">
+      <c r="AB131" t="s">
         <v>50</v>
       </c>
-      <c r="AC130" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD130" s="4">
+      <c r="AC131" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD131" s="4">
         <v>28.42</v>
       </c>
-      <c r="AE130">
+      <c r="AE131">
         <v>4</v>
       </c>
-      <c r="AF130" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="AF131" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>44626</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>39</v>
       </c>
-      <c r="E131">
+      <c r="E132">
         <v>16</v>
       </c>
-      <c r="F131">
-        <v>7</v>
-      </c>
-      <c r="G131">
-        <v>7</v>
-      </c>
-      <c r="I131">
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="I132">
         <v>9</v>
       </c>
-      <c r="R131" s="4">
+      <c r="R132" s="4">
         <f>8.99+4.31+4.37+3.79+5.99+4.95+14.99</f>
         <v>47.390000000000008</v>
       </c>
-      <c r="S131" s="4">
+      <c r="S132" s="4">
         <f>2.09+2.09+2.29+3.69+3.5+3.5+3.5+3.99+0.1+0.79+0.79+2.39+1.99+1.85+4.25+2.99</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="T131" s="4">
+      <c r="T132" s="4">
         <f>4.88+1.99+3.49+4.19+4.99+3.99+2.24</f>
         <v>25.770000000000003</v>
       </c>
-      <c r="V131" s="4">
+      <c r="V132" s="4">
         <f>4.79+1.5+1.5+2.99+6.85+12.99+2.89+4.99+2.5</f>
         <v>41.000000000000007</v>
       </c>
-      <c r="Y131" s="4">
+      <c r="Y132" s="4">
         <v>153.96</v>
       </c>
-      <c r="Z131" s="4">
+      <c r="Z132" s="4">
         <v>0</v>
       </c>
-      <c r="AA131" s="3">
+      <c r="AA132" s="3">
         <v>0.34079861111111115</v>
       </c>
-      <c r="AB131" t="s">
+      <c r="AB132" t="s">
         <v>75</v>
       </c>
-      <c r="AC131" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD131" s="4">
+      <c r="AC132" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD132" s="4">
         <v>16.37</v>
       </c>
-      <c r="AE131">
-        <v>7</v>
-      </c>
-      <c r="AF131" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="AE132">
+        <v>7</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>44633</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>35</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="E132">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
         <v>11</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>4</v>
       </c>
-      <c r="G132">
+      <c r="G133">
         <v>6</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>9</v>
       </c>
-      <c r="J132">
+      <c r="J133">
         <v>3</v>
       </c>
-      <c r="P132" s="4">
+      <c r="P133" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="R132" s="4">
+      <c r="R133" s="4">
         <f>5.99+17.85+3.79+10.69+5.49+8.49</f>
         <v>52.300000000000004</v>
       </c>
-      <c r="S132" s="4">
+      <c r="S133" s="4">
         <f>2.35+2.35+7.69+3.49+9.99+4.99+3.75+3.95+3.95+2.39+4.29</f>
         <v>49.190000000000005</v>
       </c>
-      <c r="T132" s="4">
+      <c r="T133" s="4">
         <f>3.49+3.19+4.29+3.99</f>
         <v>14.959999999999999</v>
       </c>
-      <c r="U132" s="4">
+      <c r="U133" s="4">
         <v>6.65</v>
       </c>
-      <c r="V132" s="4">
+      <c r="V133" s="4">
         <f>1.5+1.5+2+3+3+3+1.59+1.29+1.29</f>
         <v>18.169999999999998</v>
       </c>
-      <c r="W132" s="4">
+      <c r="W133" s="4">
         <f>7.49+2.99+0.99</f>
         <v>11.47</v>
       </c>
-      <c r="Y132" s="4">
+      <c r="Y133" s="4">
         <v>156.41</v>
       </c>
-      <c r="Z132" s="4">
+      <c r="Z133" s="4">
         <v>1.18</v>
       </c>
-      <c r="AA132" s="3">
+      <c r="AA133" s="3">
         <v>0.34572916666666664</v>
       </c>
-      <c r="AB132" t="s">
+      <c r="AB133" t="s">
         <v>63</v>
       </c>
-      <c r="AC132" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD132" s="4">
+      <c r="AC133" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD133" s="4">
         <v>17.010000000000002</v>
       </c>
-      <c r="AE132">
+      <c r="AE133">
         <v>5</v>
       </c>
-      <c r="AF132" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG132" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="AF133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>44640</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>35</v>
       </c>
-      <c r="E133">
+      <c r="E134">
         <v>11</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <v>10</v>
       </c>
-      <c r="G133">
+      <c r="G134">
         <v>4</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>9</v>
       </c>
-      <c r="R133" s="4">
+      <c r="R134" s="4">
         <f>9.29+9.89+2.99+4.13</f>
         <v>26.3</v>
       </c>
-      <c r="S133" s="4">
+      <c r="S134" s="4">
         <f>3+3+1.29+4.79+4.79+2.59+2.38+3.19+4.25+2.99+4.29+3.49</f>
         <v>40.050000000000004</v>
       </c>
-      <c r="T133" s="4">
+      <c r="T134" s="4">
         <f>1.76+3.49+2.5+3.55+2.99+2.99+4.29+0.99+2.5</f>
         <v>25.06</v>
       </c>
-      <c r="U133" s="4">
+      <c r="U134" s="4">
         <v>6.59</v>
       </c>
-      <c r="V133" s="4">
+      <c r="V134" s="4">
         <f>8.69+6.99+1+1+1+4.29+3.69+1.89+1.89</f>
         <v>30.44</v>
       </c>
-      <c r="Y133" s="4">
+      <c r="Y134" s="4">
         <v>123.65</v>
       </c>
-      <c r="Z133" s="4">
+      <c r="Z134" s="4">
         <v>0</v>
       </c>
-      <c r="AA133" s="3">
+      <c r="AA134" s="3">
         <v>0.3517824074074074</v>
       </c>
-      <c r="AB133" t="s">
+      <c r="AB134" t="s">
         <v>44</v>
       </c>
-      <c r="AC133" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD133" s="4">
+      <c r="AC134" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD134" s="4">
         <v>23.39</v>
       </c>
-      <c r="AE133">
-        <v>7</v>
-      </c>
-      <c r="AF133" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG133" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="AE134">
+        <v>7</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>44647</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>38</v>
       </c>
-      <c r="E134">
-        <v>7</v>
-      </c>
-      <c r="F134">
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="F135">
         <v>11</v>
       </c>
-      <c r="G134">
+      <c r="G135">
         <v>4</v>
       </c>
-      <c r="I134">
+      <c r="I135">
         <v>16</v>
       </c>
-      <c r="R134" s="4">
+      <c r="R135" s="4">
         <f>10.69+5.59+8.69+21.01</f>
         <v>45.980000000000004</v>
       </c>
-      <c r="S134" s="4">
+      <c r="S135" s="4">
         <f>3.5+7.79+4.49+1.49+0.79+0.79+1.89</f>
         <v>20.74</v>
       </c>
-      <c r="T134" s="4">
+      <c r="T135" s="4">
         <f>2.49+3.59+2.49+4.66+3.58+2.99+3.49+4.29+1.43+3.99</f>
         <v>33.000000000000007</v>
       </c>
-      <c r="V134" s="4">
+      <c r="V135" s="4">
         <f>1.5+1.5+1.5+1.5+2.99+2+4.27+5.19+0.1+1.59+2.88+2.88+2+2+2+2</f>
         <v>35.9</v>
       </c>
-      <c r="X134" s="4">
+      <c r="X135" s="4">
         <f>5+1</f>
         <v>6</v>
       </c>
-      <c r="Y134" s="4">
+      <c r="Y135" s="4">
         <v>129.66</v>
       </c>
-      <c r="Z134" s="4">
+      <c r="Z135" s="4">
         <v>0.34</v>
       </c>
-      <c r="AA134" s="3">
+      <c r="AA135" s="3">
         <v>0.34952546296296294</v>
       </c>
-      <c r="AB134" t="s">
+      <c r="AB135" t="s">
         <v>90</v>
       </c>
-      <c r="AC134" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD134" s="4">
+      <c r="AC135" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD135" s="4">
         <v>33.03</v>
       </c>
-      <c r="AE134">
-        <v>7</v>
-      </c>
-      <c r="AF134" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="AE135">
+        <v>7</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>44654</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>28</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>18</v>
-      </c>
-      <c r="F135">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136">
         <v>6</v>
       </c>
-      <c r="G135">
+      <c r="G136">
         <v>3</v>
       </c>
-      <c r="P135" s="4">
+      <c r="P136" s="4">
         <v>9.99</v>
       </c>
-      <c r="R135" s="4">
+      <c r="R136" s="4">
         <f>8.99+5.99+23.57</f>
         <v>38.549999999999997</v>
       </c>
-      <c r="S135" s="4">
+      <c r="S136" s="4">
         <f>4.09+2.99+1.79+0.05+3.29+4.39+3.59+2.39+2.39+8.79+0.79+0.79+0.79+0.79+2.39+1.99+3+3.5</f>
         <v>47.800000000000004</v>
       </c>
-      <c r="T135" s="4">
+      <c r="T136" s="4">
         <f>1.86+2.99+1.25+4.29+1.5+1.5</f>
         <v>13.39</v>
       </c>
-      <c r="Y135" s="4">
+      <c r="Y136" s="4">
         <v>109.92</v>
       </c>
-      <c r="Z135" s="4">
+      <c r="Z136" s="4">
         <v>0.19</v>
       </c>
-      <c r="AA135" s="3">
+      <c r="AA136" s="3">
         <v>0.36608796296296298</v>
       </c>
-      <c r="AB135" t="s">
+      <c r="AB136" t="s">
         <v>90</v>
       </c>
-      <c r="AC135" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD135" s="4">
+      <c r="AC136" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD136" s="4">
         <v>35.57</v>
       </c>
-      <c r="AE135">
-        <v>7</v>
-      </c>
-      <c r="AF135" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG135" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="AE136">
+        <v>7</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>44661</v>
       </c>
-      <c r="B136">
-        <v>30</v>
-      </c>
-      <c r="E136">
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="E137">
         <v>14</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>6</v>
       </c>
-      <c r="G136">
+      <c r="G137">
         <v>5</v>
       </c>
-      <c r="I136">
+      <c r="I137">
         <v>4</v>
       </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="R136" s="4">
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="R137" s="4">
         <f>7.49+10.42+8.63+5.99+5.99</f>
         <v>38.520000000000003</v>
       </c>
-      <c r="S136" s="4">
+      <c r="S137" s="4">
         <f>2.99+4.49+5.89+6.19+4.59+1.49+1.49+2.19+2.19+1.49+4.19+3.75+5.49+4.25</f>
         <v>50.68</v>
       </c>
-      <c r="T136" s="4">
+      <c r="T137" s="4">
         <f>2.44+3.49+2.99+1.35+6.59+2.99</f>
         <v>19.850000000000001</v>
       </c>
-      <c r="V136" s="4">
+      <c r="V137" s="4">
         <f>1.5+1.5+3.39+1.69</f>
         <v>8.08</v>
       </c>
-      <c r="W136" s="4">
+      <c r="W137" s="4">
         <v>3.99</v>
       </c>
-      <c r="Y136" s="4">
+      <c r="Y137" s="4">
         <v>122.16</v>
       </c>
-      <c r="Z136" s="4">
+      <c r="Z137" s="4">
         <v>1.04</v>
       </c>
-      <c r="AA136" s="3">
+      <c r="AA137" s="3">
         <v>0.34886574074074073</v>
       </c>
-      <c r="AB136" t="s">
+      <c r="AB137" t="s">
         <v>63</v>
       </c>
-      <c r="AC136" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD136" s="4">
+      <c r="AC137" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD137" s="4">
         <v>5.92</v>
       </c>
-      <c r="AE136">
-        <v>7</v>
-      </c>
-      <c r="AF136" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="AE137">
+        <v>7</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>44668</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>42</v>
       </c>
-      <c r="E137">
+      <c r="E138">
         <v>14</v>
       </c>
-      <c r="F137">
+      <c r="F138">
         <v>14</v>
       </c>
-      <c r="G137">
-        <v>7</v>
-      </c>
-      <c r="I137">
-        <v>7</v>
-      </c>
-      <c r="R137" s="4">
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="I138">
+        <v>7</v>
+      </c>
+      <c r="R138" s="4">
         <f>13+10.97+3.79+9.99+6.19+3.99+6.69</f>
         <v>54.62</v>
       </c>
-      <c r="S137" s="4">
+      <c r="S138" s="4">
         <f>3.99+4.79+1.29+1.49+3.99+0.1+0.79+0.79+0.79+0.79+3.39+0.05+4.79+4.79</f>
         <v>31.83</v>
       </c>
-      <c r="T137" s="4">
+      <c r="T138" s="4">
         <f>5.98+2.99+1.18+3.23+4.29+0.77+1.73+3.96+2.13</f>
         <v>26.26</v>
       </c>
-      <c r="V137" s="4">
+      <c r="V138" s="4">
         <f>8.99+1.5+1.5+3.39+3.35+0.1+3.19</f>
         <v>22.020000000000003</v>
       </c>
-      <c r="Y137" s="4">
+      <c r="Y138" s="4">
         <v>134.72</v>
       </c>
-      <c r="Z137" s="4">
+      <c r="Z138" s="4">
         <v>0</v>
       </c>
-      <c r="AA137" s="3">
+      <c r="AA138" s="3">
         <v>0.34053240740740742</v>
       </c>
-      <c r="AB137" t="s">
+      <c r="AB138" t="s">
         <v>60</v>
       </c>
-      <c r="AC137" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD137" s="4">
+      <c r="AC138" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD138" s="4">
         <v>9.9</v>
       </c>
-      <c r="AE137">
-        <v>7</v>
-      </c>
-      <c r="AF137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="AE138">
+        <v>7</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>44675</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>45</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="E138">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139">
         <v>25</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <v>4</v>
       </c>
-      <c r="G138">
+      <c r="G139">
         <v>4</v>
       </c>
-      <c r="I138">
+      <c r="I139">
         <v>11</v>
       </c>
-      <c r="P138" s="4">
+      <c r="P139" s="4">
         <v>1.89</v>
       </c>
-      <c r="R138" s="4">
+      <c r="R139" s="4">
         <f>7.97+3.79+7.49+7.91</f>
         <v>27.16</v>
       </c>
-      <c r="S138" s="4">
+      <c r="S139" s="4">
         <f>6.79+2.35+2.35+3.99+4.79+1.29+6.79+3.79+5.35+3.99+4.49+4.79+1.49+1.49+1.49+1.49+0.79+1.49+1.49+3.75+1.99+4.25+4.25+3.99+4.79</f>
         <v>83.51</v>
       </c>
-      <c r="T138" s="4">
+      <c r="T139" s="4">
         <f>2.91+3.49+3.29+3.19</f>
         <v>12.88</v>
       </c>
-      <c r="V138" s="4">
+      <c r="V139" s="4">
         <f>6.99+1.5+1.5+1.5+1.5+2.5+4.27+12.49+1.89+4.67+4.79</f>
         <v>43.6</v>
       </c>
-      <c r="X138" s="4">
-        <v>20</v>
-      </c>
-      <c r="Y138" s="4">
+      <c r="X139" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y139" s="4">
         <v>149.4</v>
       </c>
-      <c r="Z138" s="4">
+      <c r="Z139" s="4">
         <v>0.36</v>
       </c>
-      <c r="AA138" s="3">
+      <c r="AA139" s="3">
         <v>0.34813657407407406</v>
       </c>
-      <c r="AB138" t="s">
+      <c r="AB139" t="s">
         <v>44</v>
       </c>
-      <c r="AC138" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD138" s="4">
+      <c r="AC139" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD139" s="4">
         <v>11.52</v>
       </c>
-      <c r="AE138">
-        <v>7</v>
-      </c>
-      <c r="AF138" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG138" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="AE139">
+        <v>7</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>44682</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>40</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="E139">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>6</v>
       </c>
-      <c r="F139">
+      <c r="F140">
         <v>13</v>
       </c>
-      <c r="G139">
+      <c r="G140">
         <v>5</v>
       </c>
-      <c r="I139">
+      <c r="I140">
         <v>14</v>
       </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="P139" s="4">
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="P140" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="R139" s="4">
+      <c r="R140" s="4">
         <f>10.21+9.29+10.69+5.99</f>
         <v>36.18</v>
       </c>
-      <c r="S139" s="4">
+      <c r="S140" s="4">
         <f>2.69+3.99+1+4.79+2.19+5.99</f>
         <v>20.65</v>
       </c>
-      <c r="T139" s="4">
+      <c r="T140" s="4">
         <f>5.52+5.37+4.49+3.49+1.87+3.19+4.09+1.88+3.99+2.19+2.19</f>
         <v>38.269999999999996</v>
       </c>
-      <c r="V139" s="4">
+      <c r="V140" s="4">
         <f>1+1+3.49+3.99+3.99+3.99+3.99+5.99+3.95+4.39+3.65+3.29+3.99+3.79</f>
         <v>50.5</v>
       </c>
-      <c r="W139" s="4">
+      <c r="W140" s="4">
         <v>5.19</v>
       </c>
-      <c r="Y139" s="4">
+      <c r="Y140" s="4">
         <v>162.30000000000001</v>
       </c>
-      <c r="Z139" s="4">
+      <c r="Z140" s="4">
         <v>0.53</v>
       </c>
-      <c r="AA139" s="3">
+      <c r="AA140" s="3">
         <v>0.35248842592592594</v>
       </c>
-      <c r="AB139" t="s">
+      <c r="AB140" t="s">
         <v>44</v>
       </c>
-      <c r="AC139" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD139" s="4">
+      <c r="AC140" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD140" s="4">
         <v>11.48</v>
       </c>
-      <c r="AE139">
-        <v>7</v>
-      </c>
-      <c r="AF139" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG139" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="AE140">
+        <v>7</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>44689</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>36</v>
       </c>
-      <c r="E140">
+      <c r="E141">
         <v>15</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>10</v>
       </c>
-      <c r="G140">
+      <c r="G141">
         <v>4</v>
       </c>
-      <c r="I140">
+      <c r="I141">
         <v>3</v>
       </c>
-      <c r="J140">
+      <c r="J141">
         <v>4</v>
       </c>
-      <c r="R140" s="4">
+      <c r="R141" s="4">
         <f>3+11.98+11.97+8.99</f>
         <v>35.940000000000005</v>
       </c>
-      <c r="S140" s="4">
+      <c r="S141" s="4">
         <f>1+5.29+5.79+9.99+3.99+1.99+5.89+5.84+4.99+1.79+1.49+0.79+0.79+1.49+3.79</f>
         <v>54.910000000000004</v>
       </c>
-      <c r="T140" s="4">
+      <c r="T141" s="4">
         <f>2.31+2.48+6.99+5.63+0.89+0.98+1.5+1.5</f>
         <v>22.28</v>
       </c>
-      <c r="V140" s="4">
+      <c r="V141" s="4">
         <f>4.45+4.65+3.29</f>
         <v>12.39</v>
       </c>
-      <c r="W140" s="4">
+      <c r="W141" s="4">
         <f>6.99+4.99+2.49+2.49</f>
         <v>16.96</v>
       </c>
-      <c r="Y140" s="4">
+      <c r="Y141" s="4">
         <v>145.84</v>
       </c>
-      <c r="Z140" s="4">
+      <c r="Z141" s="4">
         <v>3.36</v>
       </c>
-      <c r="AA140" s="3">
+      <c r="AA141" s="3">
         <v>0.30954861111111109</v>
       </c>
-      <c r="AB140" t="s">
+      <c r="AB141" t="s">
         <v>44</v>
       </c>
-      <c r="AC140" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD140" s="4">
+      <c r="AC141" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD141" s="4">
         <v>22.77</v>
       </c>
-      <c r="AE140">
-        <v>7</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG140" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="AE141">
+        <v>7</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>44696</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>32</v>
       </c>
-      <c r="E141">
+      <c r="E142">
         <v>9</v>
       </c>
-      <c r="F141">
+      <c r="F142">
         <v>6</v>
       </c>
-      <c r="G141">
+      <c r="G142">
         <v>8</v>
       </c>
-      <c r="I141">
+      <c r="I142">
         <v>9</v>
       </c>
-      <c r="R141" s="4">
+      <c r="R142" s="4">
         <f>9.41+5.95+7.69+8.02+6.49+7.99+5.29+3.29</f>
         <v>54.13</v>
       </c>
-      <c r="S141" s="4">
+      <c r="S142" s="4">
         <f>2.09+3.69+2.49+1.49+1.49+1.63+5.99+2.59+2.39</f>
         <v>23.849999999999998</v>
       </c>
-      <c r="T141" s="4">
+      <c r="T142" s="4">
         <f>5+2.3+3.29+4.68+3.19+1.5</f>
         <v>19.96</v>
       </c>
-      <c r="V141" s="4">
+      <c r="V142" s="4">
         <f>1.5+1.5+3.49+3.99+4.29+1.99+3.99+2.5+4.79</f>
         <v>28.04</v>
       </c>
-      <c r="Y141" s="4">
+      <c r="Y142" s="4">
         <v>125.98</v>
       </c>
-      <c r="Z141" s="4">
+      <c r="Z142" s="4">
         <v>0</v>
       </c>
-      <c r="AA141" s="3">
+      <c r="AA142" s="3">
         <v>0.32925925925925925</v>
       </c>
-      <c r="AB141" t="s">
+      <c r="AB142" t="s">
         <v>90</v>
       </c>
-      <c r="AC141" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD141" s="4">
+      <c r="AC142" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD142" s="4">
         <v>18.13</v>
       </c>
-      <c r="AE141">
-        <v>7</v>
-      </c>
-      <c r="AF141" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="AE142">
+        <v>7</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>44703</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>46</v>
       </c>
-      <c r="E142">
+      <c r="E143">
         <v>25</v>
       </c>
-      <c r="F142">
-        <v>7</v>
-      </c>
-      <c r="G142">
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
         <v>4</v>
       </c>
-      <c r="I142">
+      <c r="I143">
         <v>8</v>
       </c>
-      <c r="J142">
+      <c r="J143">
         <v>2</v>
       </c>
-      <c r="R142" s="4">
+      <c r="R143" s="4">
         <f>7.49+7.49+8.99+5.99-2</f>
         <v>27.96</v>
       </c>
-      <c r="S142" s="4">
+      <c r="S143" s="4">
         <f>5.29-1+3.59+2.89+2.69+4.99+4.79+1.09+4.49+4.79+4.19+1.79+1.49+1.5+1.49+1.49+1.49+1.49+1.5+1.5+1.59+1.59+3.59+2.49+1.69+2.39+4.79</f>
         <v>69.670000000000016</v>
       </c>
-      <c r="T142" s="4">
+      <c r="T143" s="4">
         <f>5.99+2+2+3.29+2.48+3.18+3.29</f>
         <v>22.23</v>
       </c>
-      <c r="V142" s="4">
+      <c r="V143" s="4">
         <f>3.49+3.51+4.49-1.5+0.1+3.29+2+2</f>
         <v>17.38</v>
       </c>
-      <c r="W142" s="4">
+      <c r="W143" s="4">
         <f>2.99+5.19</f>
         <v>8.18</v>
       </c>
-      <c r="Y142" s="4">
+      <c r="Y143" s="4">
         <v>146.77000000000001</v>
       </c>
-      <c r="Z142" s="4">
+      <c r="Z143" s="4">
         <v>1.35</v>
       </c>
-      <c r="AA142" s="3">
+      <c r="AA143" s="3">
         <v>0.32512731481481483</v>
       </c>
-      <c r="AB142" t="s">
+      <c r="AB143" t="s">
         <v>44</v>
       </c>
-      <c r="AC142" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD142" s="4">
+      <c r="AC143" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD143" s="4">
         <v>21.69</v>
       </c>
-      <c r="AE142">
-        <v>7</v>
-      </c>
-      <c r="AF142" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG142" t="s">
+      <c r="AE143">
+        <v>7</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B144">
+        <v>32</v>
+      </c>
+      <c r="E144">
+        <v>13</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="R144" s="4">
+        <f>5.99+3.99+3.99+3.99+11.99+3.39</f>
+        <v>33.340000000000003</v>
+      </c>
+      <c r="S144" s="4">
+        <f>4.79+6.99+3.5+1.49+2+1.59+3.59+3.19+2.79+3.79+4.79+3.19+3.19</f>
+        <v>44.889999999999993</v>
+      </c>
+      <c r="T144" s="4">
+        <f>5+2.99+5.99+3.99+3.29+3.19+2.5</f>
+        <v>26.95</v>
+      </c>
+      <c r="V144" s="4">
+        <f>4.99+5.99+1.99+4.89</f>
+        <v>17.86</v>
+      </c>
+      <c r="W144" s="4">
+        <f>2.99+2.99</f>
+        <v>5.98</v>
+      </c>
+      <c r="Y144" s="4">
+        <v>130</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="AA144" s="3">
+        <v>0.32481481481481483</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD144" s="4">
+        <v>11.77</v>
+      </c>
+      <c r="AE144">
+        <v>7</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B145">
+        <v>30</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="I145">
+        <v>8</v>
+      </c>
+      <c r="R145" s="4">
+        <f>11.77+9.71+15.12</f>
+        <v>36.6</v>
+      </c>
+      <c r="S145" s="4">
+        <f>5.29+6.29+6.89+3.99+1.79+1.79+3.89+6.59+9.99+5.89+0.79+4.89+4.69+3.79</f>
+        <v>66.56</v>
+      </c>
+      <c r="T145" s="4">
+        <f>7.62+1.99+4.49+1.54+5.89</f>
+        <v>21.53</v>
+      </c>
+      <c r="V145" s="4">
+        <f>7.29+3.99+4.29+5.39+0.1+4.39+2.5+2.5</f>
+        <v>30.450000000000003</v>
+      </c>
+      <c r="Y145" s="4">
+        <v>156.24</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA145" s="3">
+        <v>0.30702546296296296</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD145" s="4">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AE145">
+        <v>7</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44724</v>
+      </c>
+      <c r="B146">
+        <v>31</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+      <c r="I146">
+        <v>11</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="R146" s="4">
+        <f>3.99+7.88+3.29</f>
+        <v>15.16</v>
+      </c>
+      <c r="S146" s="4">
+        <f>2.09+2.99+4+4.79+2.99+2.99+1.59+2.69+1.69+4.79</f>
+        <v>30.610000000000003</v>
+      </c>
+      <c r="T146" s="4">
+        <f>4.49+1.89+3.99+4.29</f>
+        <v>14.66</v>
+      </c>
+      <c r="V146" s="4">
+        <f>1.5+1.5+1.5+1.5+1.5+1.5+1.25+3.99+3.49+4.49+1.99</f>
+        <v>24.209999999999997</v>
+      </c>
+      <c r="W146" s="4">
+        <v>9.99</v>
+      </c>
+      <c r="X146" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y146" s="4">
+        <v>108.13</v>
+      </c>
+      <c r="Z146" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="AA146" s="3">
+        <v>0.31972222222222224</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD146" s="4">
+        <v>21.82</v>
+      </c>
+      <c r="AE146">
+        <v>7</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44731</v>
+      </c>
+      <c r="B147">
+        <v>41</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>17</v>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>8</v>
+      </c>
+      <c r="P147" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R147" s="4">
+        <f>4.99+8.34+10.18+3.99+12.99+3.99</f>
+        <v>44.480000000000004</v>
+      </c>
+      <c r="S147" s="4">
+        <f>5.29+2.39+5.89+2.09+5.99+1.79+2.39+3.69+0.79+0.79+2.19+2.19+1.49+4.69+4.39+4.39+4.79</f>
+        <v>55.23</v>
+      </c>
+      <c r="T147" s="4">
+        <f>3.58+1+2.99+1.52+0.4</f>
+        <v>9.49</v>
+      </c>
+      <c r="U147" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="V147" s="4">
+        <f>2.29+1.99+2.69+1.99+3.99+4.49+4.89+4.79</f>
+        <v>27.12</v>
+      </c>
+      <c r="X147" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y147" s="4">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="Z147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="3">
+        <v>0.33560185185185182</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD147" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AE147">
+        <v>7</v>
+      </c>
+      <c r="AF147" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B148">
+        <v>45</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>12</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="R148" s="4">
+        <f>10.99+6.79+20.59</f>
+        <v>38.370000000000005</v>
+      </c>
+      <c r="S148" s="4">
+        <f>2.39+2.39+3.69+6.89+1.49+1.49+4.29+4.69+1.49+1.89+2.99+4.49+1.89+1.89+0.79+5.89+1.69+3.69+0.05+2.99</f>
+        <v>57.059999999999995</v>
+      </c>
+      <c r="T148" s="4">
+        <f>1.99+2.89+2.38+4.49+1.04+0.99</f>
+        <v>13.78</v>
+      </c>
+      <c r="U148" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="V148" s="4">
+        <f>8.99+1.25+1.25+1.25+1.25+4.29+3.29+2.39+3.99+3.99+3+4.79</f>
+        <v>39.730000000000004</v>
+      </c>
+      <c r="W148" s="4">
+        <f>7.89+6.99</f>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="Y148" s="4">
+        <v>170.64</v>
+      </c>
+      <c r="Z148" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="AA148" s="3">
+        <v>0.32868055555555559</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD148" s="4">
+        <v>24.68</v>
+      </c>
+      <c r="AE148">
+        <v>7</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B149">
+        <v>44</v>
+      </c>
+      <c r="E149">
+        <v>15</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>7</v>
+      </c>
+      <c r="I149">
+        <v>7</v>
+      </c>
+      <c r="J149">
+        <v>4</v>
+      </c>
+      <c r="R149" s="4">
+        <f>12.43+8.72+3.99+10.49+9.25+5.49+3.69</f>
+        <v>54.06</v>
+      </c>
+      <c r="S149" s="4">
+        <f>2+2+3.79+2+4.49+5.89+1.79+2+0.79+0.79+0.79+4.35+4.99+3.69+3.79</f>
+        <v>43.149999999999991</v>
+      </c>
+      <c r="T149" s="4">
+        <f>1.49+1.73+6.89+4.89+1+3.19+2.19+2.19</f>
+        <v>23.570000000000004</v>
+      </c>
+      <c r="V149" s="4">
+        <f>1.67+1.66+1.67+3.49+0.1+3+3</f>
+        <v>14.59</v>
+      </c>
+      <c r="W149" s="4">
+        <f>2.29+2.99+2.99</f>
+        <v>8.27</v>
+      </c>
+      <c r="Y149" s="4">
+        <v>147.01</v>
+      </c>
+      <c r="Z149" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="AA149" s="3">
+        <v>0.32891203703703703</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD149" s="4">
+        <v>23.34</v>
+      </c>
+      <c r="AE149">
+        <v>7</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG149" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG142">
-    <sortCondition ref="A2:A142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG148">
+    <sortCondition ref="A2:A148"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
